--- a/biology/Botanique/Pyroleae/Pyroleae.xlsx
+++ b/biology/Botanique/Pyroleae/Pyroleae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pyroleae (Dumort., 1829) forment une tribu sein de la sous-famille des Monotropoideae (Arn., 1829) et de la famille des Ericaceae[1].
-Ils étaient autrefois considérés comme une famille à part entière, les Pyrolaceae[2].
-Selon les classifications, ce taxon est également considéré comme une sous-famille des Ericaceae, les Pyroloïdés, ou Pyroloideae (Lindl., 1829)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pyroleae (Dumort., 1829) forment une tribu sein de la sous-famille des Monotropoideae (Arn., 1829) et de la famille des Ericaceae.
+Ils étaient autrefois considérés comme une famille à part entière, les Pyrolaceae.
+Selon les classifications, ce taxon est également considéré comme une sous-famille des Ericaceae, les Pyroloïdés, ou Pyroloideae (Lindl., 1829).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La sous-famille des Pyroloïdés se compose de quatre genres[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La sous-famille des Pyroloïdés se compose de quatre genres :
 Chimaphila (Pursh, 1813), qui contient 5 espèces ;
 Pyrola (L., 1753) contenant 30 espèces ;
 Et les genres Moneses (Salisb. ex Gray, 1821) et Orthilia (Raf., 1840) étant tous deux monotypiques, c'est-à-dire qu'ils ne sont composés que d'une seule espèce.</t>
@@ -546,9 +560,11 @@
           <t>Liste des espèces en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En France continentale et ultramarine, le site de l'INPN recense en 2022[1] 9 espèces : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En France continentale et ultramarine, le site de l'INPN recense en 2022 9 espèces : 
 Chimaphila
 Chimaphila maculata (L.) Pursh, 1814
 Chimaphila umbellata (L.) W.P.C.Barton, 1817
@@ -589,9 +605,11 @@
           <t>Caractéristique mixotrophique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de plantes ayant la particularité d'être mixotrophes, dont les apports en carbone proviennent ainsi aussi bien de la photosynthèse que d'échanges réalisés avec des champignons mycorhiziens[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de plantes ayant la particularité d'être mixotrophes, dont les apports en carbone proviennent ainsi aussi bien de la photosynthèse que d'échanges réalisés avec des champignons mycorhiziens.
 </t>
         </is>
       </c>
